--- a/Resources/Time Log.xlsx
+++ b/Resources/Time Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsyac\Documents\MCD\MCD Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3DE15E-E14D-4AF2-8D54-43578F4C2F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F86CF2-45EE-48DF-AB77-71BF60C622EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="36000" windowHeight="19215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>start</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
   </si>
 </sst>
 </file>
@@ -364,19 +370,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -387,7 +393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45313</v>
       </c>
@@ -400,8 +406,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45314</v>
       </c>
@@ -414,8 +423,12 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f>SUM(D2:D6)</f>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45314</v>
       </c>
@@ -429,7 +442,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45314</v>
       </c>
@@ -443,7 +456,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45315</v>
       </c>
@@ -457,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45316</v>
       </c>
@@ -470,14 +483,77 @@
       <c r="D7">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>SUM(D8:D11)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D11">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="D12">
         <f>SUM(D2:D11)</f>
-        <v>7</v>
+        <v>14.25</v>
       </c>
     </row>
   </sheetData>
